--- a/terms-source/terms-economic-v1b.xlsx
+++ b/terms-source/terms-economic-v1b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/Dropbox/GitHub/LDA-mixed-terms/terms-source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEED8B10-2EE9-5049-9201-481A0FDBC4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC73CD8-002D-B24A-8757-535FE9D3D9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="840" windowWidth="27960" windowHeight="16940" xr2:uid="{8112C942-6ADF-8648-A43B-60BCA905E275}"/>
+    <workbookView xWindow="2660" yWindow="1480" windowWidth="27960" windowHeight="16940" xr2:uid="{8112C942-6ADF-8648-A43B-60BCA905E275}"/>
   </bookViews>
   <sheets>
     <sheet name="economic" sheetId="1" r:id="rId1"/>
@@ -1666,6 +1666,21 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
@@ -1693,21 +1708,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1907,11 +1907,11 @@
     <tableColumn id="10" xr3:uid="{37F63F9D-BE93-3C4F-8FFA-0EF4782995B3}" name="nchar" dataDxfId="3">
       <calculatedColumnFormula>LEN(B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C995D839-65A2-1A41-AF60-E80258B7AD17}" name="rid" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{C995D839-65A2-1A41-AF60-E80258B7AD17}" name="rid" dataDxfId="2">
       <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{138CC8A7-ECFB-9C41-84A0-E828D87ABB0B}" name="subsampled" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{CD52913A-078B-494D-921B-79366E4F30C4}" name="note" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{138CC8A7-ECFB-9C41-84A0-E828D87ABB0B}" name="subsampled" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{CD52913A-078B-494D-921B-79366E4F30C4}" name="note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2217,11 +2217,11 @@
   <dimension ref="A1:M511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3980" ySplit="3640" topLeftCell="A493" activePane="bottomRight"/>
+      <pane xSplit="3980" ySplit="3640" topLeftCell="A497" activePane="bottomRight"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="K2" sqref="K2:K501"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K512" sqref="K512"/>
+      <selection pane="bottomRight" activeCell="C511" sqref="C511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -21031,6 +21031,30 @@
       <c r="M508" s="1"/>
     </row>
     <row r="511" spans="1:13">
+      <c r="C511" s="1">
+        <f>SUM(C2:C508)</f>
+        <v>0</v>
+      </c>
+      <c r="D511" s="1">
+        <f>SUM(D2:D508)</f>
+        <v>0</v>
+      </c>
+      <c r="E511" s="1">
+        <f>SUM(E2:E508)</f>
+        <v>507</v>
+      </c>
+      <c r="F511" s="1">
+        <f>SUM(F2:F508)</f>
+        <v>0</v>
+      </c>
+      <c r="G511" s="1">
+        <f>SUM(G2:G508)</f>
+        <v>0</v>
+      </c>
+      <c r="H511" s="1">
+        <f>SUM(H2:H508)</f>
+        <v>0</v>
+      </c>
       <c r="K511" s="1">
         <f>SUM(K2:K508)</f>
         <v>500</v>
